--- a/src/main/resources/static/other/teacherTemplate.xlsx
+++ b/src/main/resources/static/other/teacherTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\intelliJCode\onlineexam\src\main\resources\static\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C87910B-7017-45C2-8720-59A35663AC0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A0EE1A-4CC0-4B59-8386-DC6379D86468}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="220">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,6 +96,1121 @@
   <si>
     <t>pyx12345</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">性别 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男</t>
+  </si>
+  <si>
+    <r>
+      <t>100302</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>100303</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>100304</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>100305</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>100306</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>100307</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>100308</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>100309</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>100310</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>100311</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>100312</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>100313</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>100314</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>彭玉旭1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭玉旭2</t>
+  </si>
+  <si>
+    <t>彭玉旭3</t>
+  </si>
+  <si>
+    <t>彭玉旭4</t>
+  </si>
+  <si>
+    <t>彭玉旭5</t>
+  </si>
+  <si>
+    <t>彭玉旭6</t>
+  </si>
+  <si>
+    <t>彭玉旭7</t>
+  </si>
+  <si>
+    <t>彭玉旭8</t>
+  </si>
+  <si>
+    <t>彭玉旭9</t>
+  </si>
+  <si>
+    <t>彭玉旭10</t>
+  </si>
+  <si>
+    <t>彭玉旭11</t>
+  </si>
+  <si>
+    <t>彭玉旭12</t>
+  </si>
+  <si>
+    <t>彭玉旭13</t>
+  </si>
+  <si>
+    <t>12345679@qq.com</t>
+  </si>
+  <si>
+    <t>123457</t>
+  </si>
+  <si>
+    <t>pyx12346</t>
+  </si>
+  <si>
+    <t>12345680@qq.com</t>
+  </si>
+  <si>
+    <t>123458</t>
+  </si>
+  <si>
+    <t>pyx12347</t>
+  </si>
+  <si>
+    <t>12345681@qq.com</t>
+  </si>
+  <si>
+    <t>123459</t>
+  </si>
+  <si>
+    <t>pyx12348</t>
+  </si>
+  <si>
+    <t>12345682@qq.com</t>
+  </si>
+  <si>
+    <t>123460</t>
+  </si>
+  <si>
+    <t>pyx12349</t>
+  </si>
+  <si>
+    <t>12345683@qq.com</t>
+  </si>
+  <si>
+    <t>123461</t>
+  </si>
+  <si>
+    <t>pyx12350</t>
+  </si>
+  <si>
+    <t>12345684@qq.com</t>
+  </si>
+  <si>
+    <t>123462</t>
+  </si>
+  <si>
+    <t>pyx12351</t>
+  </si>
+  <si>
+    <t>12345685@qq.com</t>
+  </si>
+  <si>
+    <t>123463</t>
+  </si>
+  <si>
+    <t>pyx12352</t>
+  </si>
+  <si>
+    <t>12345686@qq.com</t>
+  </si>
+  <si>
+    <t>123464</t>
+  </si>
+  <si>
+    <t>pyx12353</t>
+  </si>
+  <si>
+    <t>12345687@qq.com</t>
+  </si>
+  <si>
+    <t>123465</t>
+  </si>
+  <si>
+    <t>pyx12354</t>
+  </si>
+  <si>
+    <t>12345688@qq.com</t>
+  </si>
+  <si>
+    <t>123466</t>
+  </si>
+  <si>
+    <t>pyx12355</t>
+  </si>
+  <si>
+    <t>12345689@qq.com</t>
+  </si>
+  <si>
+    <t>123467</t>
+  </si>
+  <si>
+    <t>pyx12356</t>
+  </si>
+  <si>
+    <t>12345690@qq.com</t>
+  </si>
+  <si>
+    <t>123468</t>
+  </si>
+  <si>
+    <t>pyx12357</t>
+  </si>
+  <si>
+    <t>12345691@qq.com</t>
+  </si>
+  <si>
+    <t>123469</t>
+  </si>
+  <si>
+    <t>pyx12358</t>
+  </si>
+  <si>
+    <r>
+      <t>100315</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>彭玉旭14</t>
+  </si>
+  <si>
+    <t>12345692@qq.com</t>
+  </si>
+  <si>
+    <t>123470</t>
+  </si>
+  <si>
+    <t>pyx12359</t>
+  </si>
+  <si>
+    <r>
+      <t>100316</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>彭玉旭15</t>
+  </si>
+  <si>
+    <t>12345693@qq.com</t>
+  </si>
+  <si>
+    <t>123471</t>
+  </si>
+  <si>
+    <t>pyx12360</t>
+  </si>
+  <si>
+    <r>
+      <t>100317</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>彭玉旭16</t>
+  </si>
+  <si>
+    <t>12345694@qq.com</t>
+  </si>
+  <si>
+    <t>123472</t>
+  </si>
+  <si>
+    <t>pyx12361</t>
+  </si>
+  <si>
+    <r>
+      <t>100318</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>彭玉旭17</t>
+  </si>
+  <si>
+    <t>12345695@qq.com</t>
+  </si>
+  <si>
+    <t>123473</t>
+  </si>
+  <si>
+    <t>pyx12362</t>
+  </si>
+  <si>
+    <r>
+      <t>100319</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>彭玉旭18</t>
+  </si>
+  <si>
+    <t>12345696@qq.com</t>
+  </si>
+  <si>
+    <t>123474</t>
+  </si>
+  <si>
+    <t>pyx12363</t>
+  </si>
+  <si>
+    <r>
+      <t>100320</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>彭玉旭19</t>
+  </si>
+  <si>
+    <t>12345697@qq.com</t>
+  </si>
+  <si>
+    <t>123475</t>
+  </si>
+  <si>
+    <t>pyx12364</t>
+  </si>
+  <si>
+    <r>
+      <t>100321</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>彭玉旭20</t>
+  </si>
+  <si>
+    <t>12345698@qq.com</t>
+  </si>
+  <si>
+    <t>123476</t>
+  </si>
+  <si>
+    <t>pyx12365</t>
+  </si>
+  <si>
+    <r>
+      <t>100322</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>彭玉旭21</t>
+  </si>
+  <si>
+    <t>12345699@qq.com</t>
+  </si>
+  <si>
+    <t>123477</t>
+  </si>
+  <si>
+    <t>pyx12366</t>
+  </si>
+  <si>
+    <r>
+      <t>100323</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>彭玉旭22</t>
+  </si>
+  <si>
+    <t>12345700@qq.com</t>
+  </si>
+  <si>
+    <t>123478</t>
+  </si>
+  <si>
+    <t>pyx12367</t>
+  </si>
+  <si>
+    <r>
+      <t>100324</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>彭玉旭23</t>
+  </si>
+  <si>
+    <t>12345701@qq.com</t>
+  </si>
+  <si>
+    <t>123479</t>
+  </si>
+  <si>
+    <t>pyx12368</t>
+  </si>
+  <si>
+    <r>
+      <t>100325</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>彭玉旭24</t>
+  </si>
+  <si>
+    <t>12345702@qq.com</t>
+  </si>
+  <si>
+    <t>123480</t>
+  </si>
+  <si>
+    <t>pyx12369</t>
+  </si>
+  <si>
+    <r>
+      <t>100326</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>彭玉旭25</t>
+  </si>
+  <si>
+    <t>12345703@qq.com</t>
+  </si>
+  <si>
+    <t>123481</t>
+  </si>
+  <si>
+    <t>pyx12370</t>
+  </si>
+  <si>
+    <r>
+      <t>100327</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>彭玉旭26</t>
+  </si>
+  <si>
+    <t>12345704@qq.com</t>
+  </si>
+  <si>
+    <t>123482</t>
+  </si>
+  <si>
+    <t>pyx12371</t>
+  </si>
+  <si>
+    <r>
+      <t>100328</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>彭玉旭27</t>
+  </si>
+  <si>
+    <t>12345705@qq.com</t>
+  </si>
+  <si>
+    <t>123483</t>
+  </si>
+  <si>
+    <t>pyx12372</t>
+  </si>
+  <si>
+    <r>
+      <t>100329</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>彭玉旭28</t>
+  </si>
+  <si>
+    <t>12345706@qq.com</t>
+  </si>
+  <si>
+    <t>123484</t>
+  </si>
+  <si>
+    <t>pyx12373</t>
+  </si>
+  <si>
+    <r>
+      <t>100330</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>彭玉旭29</t>
+  </si>
+  <si>
+    <t>12345707@qq.com</t>
+  </si>
+  <si>
+    <t>123485</t>
+  </si>
+  <si>
+    <t>pyx12374</t>
+  </si>
+  <si>
+    <r>
+      <t>100331</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>彭玉旭30</t>
+  </si>
+  <si>
+    <t>12345708@qq.com</t>
+  </si>
+  <si>
+    <t>123486</t>
+  </si>
+  <si>
+    <t>pyx12375</t>
+  </si>
+  <si>
+    <r>
+      <t>100332</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>彭玉旭31</t>
+  </si>
+  <si>
+    <t>12345709@qq.com</t>
+  </si>
+  <si>
+    <t>123487</t>
+  </si>
+  <si>
+    <t>pyx12376</t>
+  </si>
+  <si>
+    <r>
+      <t>100333</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>彭玉旭32</t>
+  </si>
+  <si>
+    <t>12345710@qq.com</t>
+  </si>
+  <si>
+    <t>123488</t>
+  </si>
+  <si>
+    <t>pyx12377</t>
+  </si>
+  <si>
+    <r>
+      <t>100334</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>彭玉旭33</t>
+  </si>
+  <si>
+    <t>12345711@qq.com</t>
+  </si>
+  <si>
+    <t>123489</t>
+  </si>
+  <si>
+    <t>pyx12378</t>
+  </si>
+  <si>
+    <r>
+      <t>100335</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>彭玉旭34</t>
+  </si>
+  <si>
+    <t>12345712@qq.com</t>
+  </si>
+  <si>
+    <t>123490</t>
+  </si>
+  <si>
+    <t>pyx12379</t>
+  </si>
+  <si>
+    <r>
+      <t>100336</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>彭玉旭35</t>
+  </si>
+  <si>
+    <t>12345713@qq.com</t>
+  </si>
+  <si>
+    <t>123491</t>
+  </si>
+  <si>
+    <t>pyx12380</t>
+  </si>
+  <si>
+    <r>
+      <t>100337</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>彭玉旭36</t>
+  </si>
+  <si>
+    <t>12345714@qq.com</t>
+  </si>
+  <si>
+    <t>123492</t>
+  </si>
+  <si>
+    <t>pyx12381</t>
+  </si>
+  <si>
+    <r>
+      <t>100338</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>彭玉旭37</t>
+  </si>
+  <si>
+    <t>12345715@qq.com</t>
+  </si>
+  <si>
+    <t>123493</t>
+  </si>
+  <si>
+    <t>pyx12382</t>
+  </si>
+  <si>
+    <r>
+      <t>100339</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>彭玉旭38</t>
+  </si>
+  <si>
+    <t>12345716@qq.com</t>
+  </si>
+  <si>
+    <t>123494</t>
+  </si>
+  <si>
+    <t>pyx12383</t>
+  </si>
+  <si>
+    <r>
+      <t>100340</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>彭玉旭39</t>
+  </si>
+  <si>
+    <t>12345717@qq.com</t>
+  </si>
+  <si>
+    <t>123495</t>
+  </si>
+  <si>
+    <t>pyx12384</t>
+  </si>
+  <si>
+    <r>
+      <t>100341</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>彭玉旭40</t>
+  </si>
+  <si>
+    <t>12345718@qq.com</t>
+  </si>
+  <si>
+    <t>123496</t>
+  </si>
+  <si>
+    <t>pyx12385</t>
+  </si>
+  <si>
+    <r>
+      <t>100342</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>彭玉旭41</t>
+  </si>
+  <si>
+    <t>12345719@qq.com</t>
+  </si>
+  <si>
+    <t>123497</t>
+  </si>
+  <si>
+    <t>pyx12386</t>
   </si>
 </sst>
 </file>
@@ -448,10 +1563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -459,12 +1574,12 @@
     <col min="1" max="1" width="17.25" style="2" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
     <col min="3" max="3" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="18.375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="18" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="4" max="7" width="18.375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="18" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -483,11 +1598,14 @@
       <c r="F1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -506,12 +1624,961 @@
       <c r="F2" s="5" t="s">
         <v>12</v>
       </c>
+      <c r="G2" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>11</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576" xr:uid="{CE463FB1-C441-46BC-8432-27DACA2CA46E}">
+      <formula1>"男,女"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
